--- a/data/raw/election/voters-age-sex-education/2023/Kırklareli.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Kırklareli.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:48:19-11684516901" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="37">
   <si>
     <t>Kırklareli</t>
   </si>
@@ -125,6 +124,12 @@
   </si>
   <si>
     <t>Vize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -658,7 +663,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -672,16 +677,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1006,10 +1020,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N212"/>
+  <dimension ref="A1:N214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213:A214"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,52 +1039,52 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1127,8 +1141,8 @@
       <c r="G6" s="4">
         <v>380</v>
       </c>
-      <c r="H6" s="4">
-        <v>1.081</v>
+      <c r="H6" s="5">
+        <v>1081</v>
       </c>
       <c r="I6" s="4">
         <v>243</v>
@@ -1142,8 +1156,8 @@
       <c r="L6" s="4">
         <v>7</v>
       </c>
-      <c r="M6" s="5">
-        <v>1.72</v>
+      <c r="M6" s="6">
+        <v>1720</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1181,8 +1195,8 @@
       <c r="L7" s="4">
         <v>4</v>
       </c>
-      <c r="M7" s="5">
-        <v>1.63</v>
+      <c r="M7" s="6">
+        <v>1630</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1222,8 +1236,8 @@
       <c r="L8" s="4">
         <v>11</v>
       </c>
-      <c r="M8" s="5">
-        <v>1.6779999999999999</v>
+      <c r="M8" s="6">
+        <v>1678</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1261,8 +1275,8 @@
       <c r="L9" s="4">
         <v>6</v>
       </c>
-      <c r="M9" s="5">
-        <v>1.3560000000000001</v>
+      <c r="M9" s="6">
+        <v>1356</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1302,8 +1316,8 @@
       <c r="L10" s="4">
         <v>3</v>
       </c>
-      <c r="M10" s="5">
-        <v>1.597</v>
+      <c r="M10" s="6">
+        <v>1597</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1341,8 +1355,8 @@
       <c r="L11" s="4">
         <v>12</v>
       </c>
-      <c r="M11" s="5">
-        <v>1.284</v>
+      <c r="M11" s="6">
+        <v>1284</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1382,8 +1396,8 @@
       <c r="L12" s="4">
         <v>5</v>
       </c>
-      <c r="M12" s="5">
-        <v>1.4950000000000001</v>
+      <c r="M12" s="6">
+        <v>1495</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1421,8 +1435,8 @@
       <c r="L13" s="4">
         <v>4</v>
       </c>
-      <c r="M13" s="5">
-        <v>1.286</v>
+      <c r="M13" s="6">
+        <v>1286</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1462,8 +1476,8 @@
       <c r="L14" s="4">
         <v>7</v>
       </c>
-      <c r="M14" s="5">
-        <v>1.704</v>
+      <c r="M14" s="6">
+        <v>1704</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1501,8 +1515,8 @@
       <c r="L15" s="4">
         <v>5</v>
       </c>
-      <c r="M15" s="5">
-        <v>1.5509999999999999</v>
+      <c r="M15" s="6">
+        <v>1551</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1542,8 +1556,8 @@
       <c r="L16" s="4">
         <v>8</v>
       </c>
-      <c r="M16" s="5">
-        <v>1.6539999999999999</v>
+      <c r="M16" s="6">
+        <v>1654</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1581,8 +1595,8 @@
       <c r="L17" s="4">
         <v>16</v>
       </c>
-      <c r="M17" s="5">
-        <v>1.5569999999999999</v>
+      <c r="M17" s="6">
+        <v>1557</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1622,8 +1636,8 @@
       <c r="L18" s="4">
         <v>10</v>
       </c>
-      <c r="M18" s="5">
-        <v>1.5640000000000001</v>
+      <c r="M18" s="6">
+        <v>1564</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1661,8 +1675,8 @@
       <c r="L19" s="4">
         <v>13</v>
       </c>
-      <c r="M19" s="5">
-        <v>1.663</v>
+      <c r="M19" s="6">
+        <v>1663</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1702,8 +1716,8 @@
       <c r="L20" s="4">
         <v>12</v>
       </c>
-      <c r="M20" s="5">
-        <v>1.7230000000000001</v>
+      <c r="M20" s="6">
+        <v>1723</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1741,8 +1755,8 @@
       <c r="L21" s="4">
         <v>17</v>
       </c>
-      <c r="M21" s="5">
-        <v>1.8320000000000001</v>
+      <c r="M21" s="6">
+        <v>1832</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1782,8 +1796,8 @@
       <c r="L22" s="4">
         <v>17</v>
       </c>
-      <c r="M22" s="5">
-        <v>1.8520000000000001</v>
+      <c r="M22" s="6">
+        <v>1852</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1797,8 +1811,8 @@
       <c r="D23" s="4">
         <v>50</v>
       </c>
-      <c r="E23" s="4">
-        <v>1.125</v>
+      <c r="E23" s="5">
+        <v>1125</v>
       </c>
       <c r="F23" s="4">
         <v>114</v>
@@ -1821,8 +1835,8 @@
       <c r="L23" s="4">
         <v>21</v>
       </c>
-      <c r="M23" s="5">
-        <v>1.895</v>
+      <c r="M23" s="6">
+        <v>1895</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1862,8 +1876,8 @@
       <c r="L24" s="4">
         <v>20</v>
       </c>
-      <c r="M24" s="5">
-        <v>1.746</v>
+      <c r="M24" s="6">
+        <v>1746</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1877,8 +1891,8 @@
       <c r="D25" s="4">
         <v>75</v>
       </c>
-      <c r="E25" s="4">
-        <v>1.3029999999999999</v>
+      <c r="E25" s="5">
+        <v>1303</v>
       </c>
       <c r="F25" s="4">
         <v>50</v>
@@ -1901,8 +1915,8 @@
       <c r="L25" s="4">
         <v>16</v>
       </c>
-      <c r="M25" s="5">
-        <v>1.883</v>
+      <c r="M25" s="6">
+        <v>1883</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1942,8 +1956,8 @@
       <c r="L26" s="4">
         <v>11</v>
       </c>
-      <c r="M26" s="5">
-        <v>1.2410000000000001</v>
+      <c r="M26" s="6">
+        <v>1241</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1957,8 +1971,8 @@
       <c r="D27" s="4">
         <v>72</v>
       </c>
-      <c r="E27" s="4">
-        <v>1.0149999999999999</v>
+      <c r="E27" s="5">
+        <v>1015</v>
       </c>
       <c r="F27" s="4">
         <v>10</v>
@@ -1981,8 +1995,8 @@
       <c r="L27" s="4">
         <v>27</v>
       </c>
-      <c r="M27" s="5">
-        <v>1.397</v>
+      <c r="M27" s="6">
+        <v>1397</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2022,8 +2036,8 @@
       <c r="L28" s="4">
         <v>27</v>
       </c>
-      <c r="M28" s="5">
-        <v>1.379</v>
+      <c r="M28" s="6">
+        <v>1379</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2037,8 +2051,8 @@
       <c r="D29" s="4">
         <v>254</v>
       </c>
-      <c r="E29" s="4">
-        <v>1.2629999999999999</v>
+      <c r="E29" s="5">
+        <v>1263</v>
       </c>
       <c r="F29" s="4">
         <v>5</v>
@@ -2061,54 +2075,54 @@
       <c r="L29" s="4">
         <v>27</v>
       </c>
-      <c r="M29" s="5">
-        <v>1.984</v>
+      <c r="M29" s="6">
+        <v>1984</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="8">
         <v>588</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="8">
         <v>772</v>
       </c>
-      <c r="E30" s="5">
-        <v>11.692</v>
-      </c>
-      <c r="F30" s="5">
-        <v>3.367</v>
-      </c>
-      <c r="G30" s="5">
-        <v>5.0430000000000001</v>
-      </c>
-      <c r="H30" s="5">
-        <v>10.688000000000001</v>
-      </c>
-      <c r="I30" s="5">
-        <v>5.7569999999999997</v>
-      </c>
-      <c r="J30" s="5">
+      <c r="E30" s="6">
+        <v>11692</v>
+      </c>
+      <c r="F30" s="6">
+        <v>3367</v>
+      </c>
+      <c r="G30" s="6">
+        <v>5043</v>
+      </c>
+      <c r="H30" s="6">
+        <v>10688</v>
+      </c>
+      <c r="I30" s="6">
+        <v>5757</v>
+      </c>
+      <c r="J30" s="8">
         <v>420</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="8">
         <v>38</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="8">
         <v>306</v>
       </c>
-      <c r="M30" s="5">
-        <v>38.670999999999999</v>
+      <c r="M30" s="6">
+        <v>38671</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2180,7 +2194,7 @@
       <c r="L32" s="4">
         <v>5</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="8">
         <v>386</v>
       </c>
     </row>
@@ -2219,7 +2233,7 @@
       <c r="L33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="8">
         <v>321</v>
       </c>
     </row>
@@ -2260,7 +2274,7 @@
       <c r="L34" s="4">
         <v>2</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="8">
         <v>370</v>
       </c>
     </row>
@@ -2299,7 +2313,7 @@
       <c r="L35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="8">
         <v>292</v>
       </c>
     </row>
@@ -2340,7 +2354,7 @@
       <c r="L36" s="4">
         <v>2</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="8">
         <v>319</v>
       </c>
     </row>
@@ -2379,7 +2393,7 @@
       <c r="L37" s="4">
         <v>3</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="8">
         <v>240</v>
       </c>
     </row>
@@ -2420,7 +2434,7 @@
       <c r="L38" s="4">
         <v>1</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="8">
         <v>319</v>
       </c>
     </row>
@@ -2459,7 +2473,7 @@
       <c r="L39" s="4">
         <v>2</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="8">
         <v>218</v>
       </c>
     </row>
@@ -2500,7 +2514,7 @@
       <c r="L40" s="4">
         <v>3</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="8">
         <v>290</v>
       </c>
     </row>
@@ -2539,7 +2553,7 @@
       <c r="L41" s="4">
         <v>2</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="8">
         <v>235</v>
       </c>
     </row>
@@ -2580,7 +2594,7 @@
       <c r="L42" s="4">
         <v>3</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="8">
         <v>270</v>
       </c>
     </row>
@@ -2619,7 +2633,7 @@
       <c r="L43" s="4">
         <v>4</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="8">
         <v>203</v>
       </c>
     </row>
@@ -2660,7 +2674,7 @@
       <c r="L44" s="4">
         <v>1</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="8">
         <v>348</v>
       </c>
     </row>
@@ -2699,7 +2713,7 @@
       <c r="L45" s="4">
         <v>1</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="8">
         <v>290</v>
       </c>
     </row>
@@ -2740,7 +2754,7 @@
       <c r="L46" s="4">
         <v>4</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="8">
         <v>361</v>
       </c>
     </row>
@@ -2779,7 +2793,7 @@
       <c r="L47" s="4">
         <v>3</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="8">
         <v>344</v>
       </c>
     </row>
@@ -2820,7 +2834,7 @@
       <c r="L48" s="4">
         <v>3</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="8">
         <v>398</v>
       </c>
     </row>
@@ -2859,7 +2873,7 @@
       <c r="L49" s="4">
         <v>2</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="8">
         <v>338</v>
       </c>
     </row>
@@ -2900,7 +2914,7 @@
       <c r="L50" s="4">
         <v>4</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="8">
         <v>320</v>
       </c>
     </row>
@@ -2939,7 +2953,7 @@
       <c r="L51" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="8">
         <v>334</v>
       </c>
     </row>
@@ -2980,7 +2994,7 @@
       <c r="L52" s="4">
         <v>1</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="8">
         <v>243</v>
       </c>
     </row>
@@ -3019,7 +3033,7 @@
       <c r="L53" s="4">
         <v>2</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="8">
         <v>227</v>
       </c>
     </row>
@@ -3060,7 +3074,7 @@
       <c r="L54" s="4">
         <v>1</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="8">
         <v>281</v>
       </c>
     </row>
@@ -3099,7 +3113,7 @@
       <c r="L55" s="4">
         <v>4</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="8">
         <v>325</v>
       </c>
     </row>
@@ -3107,46 +3121,46 @@
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
+      <c r="B56" s="7"/>
+      <c r="C56" s="8">
         <v>185</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="8">
         <v>213</v>
       </c>
-      <c r="E56" s="5">
-        <v>2.5339999999999998</v>
-      </c>
-      <c r="F56" s="5">
+      <c r="E56" s="6">
+        <v>2534</v>
+      </c>
+      <c r="F56" s="8">
         <v>708</v>
       </c>
-      <c r="G56" s="5">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="H56" s="5">
-        <v>1.6120000000000001</v>
-      </c>
-      <c r="I56" s="5">
+      <c r="G56" s="6">
+        <v>1005</v>
+      </c>
+      <c r="H56" s="6">
+        <v>1612</v>
+      </c>
+      <c r="I56" s="8">
         <v>900</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="8">
         <v>59</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="8">
         <v>3</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="8">
         <v>53</v>
       </c>
-      <c r="M56" s="5">
-        <v>7.2720000000000002</v>
+      <c r="M56" s="6">
+        <v>7272</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3203,8 +3217,8 @@
       <c r="G58" s="4">
         <v>920</v>
       </c>
-      <c r="H58" s="4">
-        <v>2.5059999999999998</v>
+      <c r="H58" s="5">
+        <v>2506</v>
       </c>
       <c r="I58" s="4">
         <v>697</v>
@@ -3218,8 +3232,8 @@
       <c r="L58" s="4">
         <v>33</v>
       </c>
-      <c r="M58" s="5">
-        <v>4.24</v>
+      <c r="M58" s="6">
+        <v>4240</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3242,8 +3256,8 @@
       <c r="G59" s="4">
         <v>765</v>
       </c>
-      <c r="H59" s="4">
-        <v>2.387</v>
+      <c r="H59" s="5">
+        <v>2387</v>
       </c>
       <c r="I59" s="4">
         <v>989</v>
@@ -3257,8 +3271,8 @@
       <c r="L59" s="4">
         <v>11</v>
       </c>
-      <c r="M59" s="5">
-        <v>4.2430000000000003</v>
+      <c r="M59" s="6">
+        <v>4243</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3283,11 +3297,11 @@
       <c r="G60" s="4">
         <v>628</v>
       </c>
-      <c r="H60" s="4">
-        <v>1.208</v>
-      </c>
-      <c r="I60" s="4">
-        <v>1.56</v>
+      <c r="H60" s="5">
+        <v>1208</v>
+      </c>
+      <c r="I60" s="5">
+        <v>1560</v>
       </c>
       <c r="J60" s="4">
         <v>131</v>
@@ -3298,8 +3312,8 @@
       <c r="L60" s="4">
         <v>13</v>
       </c>
-      <c r="M60" s="5">
-        <v>3.6469999999999998</v>
+      <c r="M60" s="6">
+        <v>3647</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3325,8 +3339,8 @@
       <c r="H61" s="4">
         <v>815</v>
       </c>
-      <c r="I61" s="4">
-        <v>1.901</v>
+      <c r="I61" s="5">
+        <v>1901</v>
       </c>
       <c r="J61" s="4">
         <v>162</v>
@@ -3337,8 +3351,8 @@
       <c r="L61" s="4">
         <v>17</v>
       </c>
-      <c r="M61" s="5">
-        <v>3.5459999999999998</v>
+      <c r="M61" s="6">
+        <v>3546</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3363,11 +3377,11 @@
       <c r="G62" s="4">
         <v>262</v>
       </c>
-      <c r="H62" s="4">
-        <v>1.3129999999999999</v>
-      </c>
-      <c r="I62" s="4">
-        <v>1.5349999999999999</v>
+      <c r="H62" s="5">
+        <v>1313</v>
+      </c>
+      <c r="I62" s="5">
+        <v>1535</v>
       </c>
       <c r="J62" s="4">
         <v>220</v>
@@ -3378,8 +3392,8 @@
       <c r="L62" s="4">
         <v>23</v>
       </c>
-      <c r="M62" s="5">
-        <v>3.8740000000000001</v>
+      <c r="M62" s="6">
+        <v>3874</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3405,8 +3419,8 @@
       <c r="H63" s="4">
         <v>870</v>
       </c>
-      <c r="I63" s="4">
-        <v>1.5389999999999999</v>
+      <c r="I63" s="5">
+        <v>1539</v>
       </c>
       <c r="J63" s="4">
         <v>232</v>
@@ -3417,8 +3431,8 @@
       <c r="L63" s="4">
         <v>33</v>
       </c>
-      <c r="M63" s="5">
-        <v>3.4990000000000001</v>
+      <c r="M63" s="6">
+        <v>3499</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3443,11 +3457,11 @@
       <c r="G64" s="4">
         <v>243</v>
       </c>
-      <c r="H64" s="4">
-        <v>1.254</v>
-      </c>
-      <c r="I64" s="4">
-        <v>1.2949999999999999</v>
+      <c r="H64" s="5">
+        <v>1254</v>
+      </c>
+      <c r="I64" s="5">
+        <v>1295</v>
       </c>
       <c r="J64" s="4">
         <v>209</v>
@@ -3458,8 +3472,8 @@
       <c r="L64" s="4">
         <v>12</v>
       </c>
-      <c r="M64" s="5">
-        <v>3.8450000000000002</v>
+      <c r="M64" s="6">
+        <v>3845</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3482,11 +3496,11 @@
       <c r="G65" s="4">
         <v>297</v>
       </c>
-      <c r="H65" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="I65" s="4">
-        <v>1.151</v>
+      <c r="H65" s="5">
+        <v>1016</v>
+      </c>
+      <c r="I65" s="5">
+        <v>1151</v>
       </c>
       <c r="J65" s="4">
         <v>207</v>
@@ -3497,8 +3511,8 @@
       <c r="L65" s="4">
         <v>12</v>
       </c>
-      <c r="M65" s="5">
-        <v>3.5150000000000001</v>
+      <c r="M65" s="6">
+        <v>3515</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3523,8 +3537,8 @@
       <c r="G66" s="4">
         <v>503</v>
       </c>
-      <c r="H66" s="4">
-        <v>1.4139999999999999</v>
+      <c r="H66" s="5">
+        <v>1414</v>
       </c>
       <c r="I66" s="4">
         <v>979</v>
@@ -3538,8 +3552,8 @@
       <c r="L66" s="4">
         <v>23</v>
       </c>
-      <c r="M66" s="5">
-        <v>3.9830000000000001</v>
+      <c r="M66" s="6">
+        <v>3983</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3562,8 +3576,8 @@
       <c r="G67" s="4">
         <v>524</v>
       </c>
-      <c r="H67" s="4">
-        <v>1.175</v>
+      <c r="H67" s="5">
+        <v>1175</v>
       </c>
       <c r="I67" s="4">
         <v>858</v>
@@ -3577,8 +3591,8 @@
       <c r="L67" s="4">
         <v>18</v>
       </c>
-      <c r="M67" s="5">
-        <v>3.8119999999999998</v>
+      <c r="M67" s="6">
+        <v>3812</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3603,8 +3617,8 @@
       <c r="G68" s="4">
         <v>471</v>
       </c>
-      <c r="H68" s="4">
-        <v>1.099</v>
+      <c r="H68" s="5">
+        <v>1099</v>
       </c>
       <c r="I68" s="4">
         <v>848</v>
@@ -3618,8 +3632,8 @@
       <c r="L68" s="4">
         <v>14</v>
       </c>
-      <c r="M68" s="5">
-        <v>3.5830000000000002</v>
+      <c r="M68" s="6">
+        <v>3583</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3657,8 +3671,8 @@
       <c r="L69" s="4">
         <v>24</v>
       </c>
-      <c r="M69" s="5">
-        <v>3.45</v>
+      <c r="M69" s="6">
+        <v>3450</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3698,8 +3712,8 @@
       <c r="L70" s="4">
         <v>22</v>
       </c>
-      <c r="M70" s="5">
-        <v>3.25</v>
+      <c r="M70" s="6">
+        <v>3250</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3737,8 +3751,8 @@
       <c r="L71" s="4">
         <v>20</v>
       </c>
-      <c r="M71" s="5">
-        <v>3.3130000000000002</v>
+      <c r="M71" s="6">
+        <v>3313</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3778,8 +3792,8 @@
       <c r="L72" s="4">
         <v>38</v>
       </c>
-      <c r="M72" s="5">
-        <v>3.1909999999999998</v>
+      <c r="M72" s="6">
+        <v>3191</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3793,8 +3807,8 @@
       <c r="D73" s="4">
         <v>54</v>
       </c>
-      <c r="E73" s="4">
-        <v>1.288</v>
+      <c r="E73" s="5">
+        <v>1288</v>
       </c>
       <c r="F73" s="4">
         <v>515</v>
@@ -3817,8 +3831,8 @@
       <c r="L73" s="4">
         <v>29</v>
       </c>
-      <c r="M73" s="5">
-        <v>3.3820000000000001</v>
+      <c r="M73" s="6">
+        <v>3382</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3834,8 +3848,8 @@
       <c r="D74" s="4">
         <v>26</v>
       </c>
-      <c r="E74" s="4">
-        <v>1.1950000000000001</v>
+      <c r="E74" s="5">
+        <v>1195</v>
       </c>
       <c r="F74" s="4">
         <v>345</v>
@@ -3858,8 +3872,8 @@
       <c r="L74" s="4">
         <v>31</v>
       </c>
-      <c r="M74" s="5">
-        <v>3.1779999999999999</v>
+      <c r="M74" s="6">
+        <v>3178</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3873,8 +3887,8 @@
       <c r="D75" s="4">
         <v>74</v>
       </c>
-      <c r="E75" s="4">
-        <v>1.7350000000000001</v>
+      <c r="E75" s="5">
+        <v>1735</v>
       </c>
       <c r="F75" s="4">
         <v>344</v>
@@ -3897,8 +3911,8 @@
       <c r="L75" s="4">
         <v>30</v>
       </c>
-      <c r="M75" s="5">
-        <v>3.2829999999999999</v>
+      <c r="M75" s="6">
+        <v>3283</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3914,8 +3928,8 @@
       <c r="D76" s="4">
         <v>53</v>
       </c>
-      <c r="E76" s="4">
-        <v>1.395</v>
+      <c r="E76" s="5">
+        <v>1395</v>
       </c>
       <c r="F76" s="4">
         <v>200</v>
@@ -3938,8 +3952,8 @@
       <c r="L76" s="4">
         <v>36</v>
       </c>
-      <c r="M76" s="5">
-        <v>2.7970000000000002</v>
+      <c r="M76" s="6">
+        <v>2797</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3953,8 +3967,8 @@
       <c r="D77" s="4">
         <v>119</v>
       </c>
-      <c r="E77" s="4">
-        <v>1.9219999999999999</v>
+      <c r="E77" s="5">
+        <v>1922</v>
       </c>
       <c r="F77" s="4">
         <v>152</v>
@@ -3977,8 +3991,8 @@
       <c r="L77" s="4">
         <v>37</v>
       </c>
-      <c r="M77" s="5">
-        <v>3.032</v>
+      <c r="M77" s="6">
+        <v>3032</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3994,8 +4008,8 @@
       <c r="D78" s="4">
         <v>49</v>
       </c>
-      <c r="E78" s="4">
-        <v>1.2</v>
+      <c r="E78" s="5">
+        <v>1200</v>
       </c>
       <c r="F78" s="4">
         <v>69</v>
@@ -4018,8 +4032,8 @@
       <c r="L78" s="4">
         <v>26</v>
       </c>
-      <c r="M78" s="5">
-        <v>1.9450000000000001</v>
+      <c r="M78" s="6">
+        <v>1945</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -4033,8 +4047,8 @@
       <c r="D79" s="4">
         <v>150</v>
       </c>
-      <c r="E79" s="4">
-        <v>1.43</v>
+      <c r="E79" s="5">
+        <v>1430</v>
       </c>
       <c r="F79" s="4">
         <v>49</v>
@@ -4057,8 +4071,8 @@
       <c r="L79" s="4">
         <v>19</v>
       </c>
-      <c r="M79" s="5">
-        <v>2.1110000000000002</v>
+      <c r="M79" s="6">
+        <v>2111</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4074,8 +4088,8 @@
       <c r="D80" s="4">
         <v>175</v>
       </c>
-      <c r="E80" s="4">
-        <v>1.347</v>
+      <c r="E80" s="5">
+        <v>1347</v>
       </c>
       <c r="F80" s="4">
         <v>36</v>
@@ -4098,8 +4112,8 @@
       <c r="L80" s="4">
         <v>24</v>
       </c>
-      <c r="M80" s="5">
-        <v>2.1219999999999999</v>
+      <c r="M80" s="6">
+        <v>2122</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4113,8 +4127,8 @@
       <c r="D81" s="4">
         <v>442</v>
       </c>
-      <c r="E81" s="4">
-        <v>1.944</v>
+      <c r="E81" s="5">
+        <v>1944</v>
       </c>
       <c r="F81" s="4">
         <v>13</v>
@@ -4137,54 +4151,54 @@
       <c r="L81" s="4">
         <v>37</v>
       </c>
-      <c r="M81" s="5">
-        <v>3.2170000000000001</v>
+      <c r="M81" s="6">
+        <v>3217</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>1.0269999999999999</v>
-      </c>
-      <c r="D82" s="5">
-        <v>1.4850000000000001</v>
-      </c>
-      <c r="E82" s="5">
-        <v>17.800999999999998</v>
-      </c>
-      <c r="F82" s="5">
-        <v>7.8440000000000003</v>
-      </c>
-      <c r="G82" s="5">
-        <v>9.6430000000000007</v>
-      </c>
-      <c r="H82" s="5">
-        <v>21.706</v>
-      </c>
-      <c r="I82" s="5">
-        <v>17.530999999999999</v>
-      </c>
-      <c r="J82" s="5">
-        <v>1.9379999999999999</v>
-      </c>
-      <c r="K82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="6">
+        <v>1027</v>
+      </c>
+      <c r="D82" s="6">
+        <v>1485</v>
+      </c>
+      <c r="E82" s="6">
+        <v>17801</v>
+      </c>
+      <c r="F82" s="6">
+        <v>7844</v>
+      </c>
+      <c r="G82" s="6">
+        <v>9643</v>
+      </c>
+      <c r="H82" s="6">
+        <v>21706</v>
+      </c>
+      <c r="I82" s="6">
+        <v>17531</v>
+      </c>
+      <c r="J82" s="6">
+        <v>1938</v>
+      </c>
+      <c r="K82" s="8">
         <v>501</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="8">
         <v>582</v>
       </c>
-      <c r="M82" s="5">
-        <v>80.058000000000007</v>
+      <c r="M82" s="6">
+        <v>80058</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4256,7 +4270,7 @@
       <c r="L84" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M84" s="5">
+      <c r="M84" s="8">
         <v>71</v>
       </c>
     </row>
@@ -4295,7 +4309,7 @@
       <c r="L85" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M85" s="5">
+      <c r="M85" s="8">
         <v>59</v>
       </c>
     </row>
@@ -4336,7 +4350,7 @@
       <c r="L86" s="4">
         <v>1</v>
       </c>
-      <c r="M86" s="5">
+      <c r="M86" s="8">
         <v>73</v>
       </c>
     </row>
@@ -4375,7 +4389,7 @@
       <c r="L87" s="4">
         <v>1</v>
       </c>
-      <c r="M87" s="5">
+      <c r="M87" s="8">
         <v>35</v>
       </c>
     </row>
@@ -4416,7 +4430,7 @@
       <c r="L88" s="4">
         <v>1</v>
       </c>
-      <c r="M88" s="5">
+      <c r="M88" s="8">
         <v>53</v>
       </c>
     </row>
@@ -4455,7 +4469,7 @@
       <c r="L89" s="4">
         <v>2</v>
       </c>
-      <c r="M89" s="5">
+      <c r="M89" s="8">
         <v>33</v>
       </c>
     </row>
@@ -4496,7 +4510,7 @@
       <c r="L90" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M90" s="5">
+      <c r="M90" s="8">
         <v>45</v>
       </c>
     </row>
@@ -4535,7 +4549,7 @@
       <c r="L91" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="8">
         <v>24</v>
       </c>
     </row>
@@ -4576,7 +4590,7 @@
       <c r="L92" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M92" s="5">
+      <c r="M92" s="8">
         <v>77</v>
       </c>
     </row>
@@ -4615,7 +4629,7 @@
       <c r="L93" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M93" s="5">
+      <c r="M93" s="8">
         <v>38</v>
       </c>
     </row>
@@ -4656,7 +4670,7 @@
       <c r="L94" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M94" s="5">
+      <c r="M94" s="8">
         <v>69</v>
       </c>
     </row>
@@ -4695,7 +4709,7 @@
       <c r="L95" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="8">
         <v>38</v>
       </c>
     </row>
@@ -4736,7 +4750,7 @@
       <c r="L96" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="8">
         <v>73</v>
       </c>
     </row>
@@ -4775,7 +4789,7 @@
       <c r="L97" s="4">
         <v>1</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="8">
         <v>63</v>
       </c>
     </row>
@@ -4816,7 +4830,7 @@
       <c r="L98" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="8">
         <v>105</v>
       </c>
     </row>
@@ -4855,7 +4869,7 @@
       <c r="L99" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="8">
         <v>91</v>
       </c>
     </row>
@@ -4896,7 +4910,7 @@
       <c r="L100" s="4">
         <v>1</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="8">
         <v>124</v>
       </c>
     </row>
@@ -4935,7 +4949,7 @@
       <c r="L101" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="8">
         <v>108</v>
       </c>
     </row>
@@ -4976,7 +4990,7 @@
       <c r="L102" s="4">
         <v>1</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="8">
         <v>124</v>
       </c>
     </row>
@@ -5015,7 +5029,7 @@
       <c r="L103" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="8">
         <v>108</v>
       </c>
     </row>
@@ -5056,7 +5070,7 @@
       <c r="L104" s="4">
         <v>1</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="8">
         <v>84</v>
       </c>
     </row>
@@ -5095,7 +5109,7 @@
       <c r="L105" s="4">
         <v>1</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="8">
         <v>94</v>
       </c>
     </row>
@@ -5136,7 +5150,7 @@
       <c r="L106" s="4">
         <v>2</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="8">
         <v>138</v>
       </c>
     </row>
@@ -5175,7 +5189,7 @@
       <c r="L107" s="4">
         <v>1</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="8">
         <v>190</v>
       </c>
     </row>
@@ -5183,46 +5197,46 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
+      <c r="B108" s="7"/>
+      <c r="C108" s="8">
         <v>68</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="8">
         <v>150</v>
       </c>
-      <c r="E108" s="5">
+      <c r="E108" s="8">
         <v>861</v>
       </c>
-      <c r="F108" s="5">
+      <c r="F108" s="8">
         <v>150</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G108" s="8">
         <v>191</v>
       </c>
-      <c r="H108" s="5">
+      <c r="H108" s="8">
         <v>313</v>
       </c>
-      <c r="I108" s="5">
+      <c r="I108" s="8">
         <v>160</v>
       </c>
-      <c r="J108" s="5">
+      <c r="J108" s="8">
         <v>10</v>
       </c>
-      <c r="K108" s="5">
-        <v>1</v>
-      </c>
-      <c r="L108" s="5">
+      <c r="K108" s="8">
+        <v>1</v>
+      </c>
+      <c r="L108" s="8">
         <v>13</v>
       </c>
-      <c r="M108" s="5">
-        <v>1.917</v>
+      <c r="M108" s="6">
+        <v>1917</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5276,11 +5290,11 @@
       <c r="F110" s="4">
         <v>3</v>
       </c>
-      <c r="G110" s="4">
-        <v>1.3340000000000001</v>
-      </c>
-      <c r="H110" s="4">
-        <v>4.1159999999999997</v>
+      <c r="G110" s="5">
+        <v>1334</v>
+      </c>
+      <c r="H110" s="5">
+        <v>4116</v>
       </c>
       <c r="I110" s="4">
         <v>992</v>
@@ -5294,8 +5308,8 @@
       <c r="L110" s="4">
         <v>32</v>
       </c>
-      <c r="M110" s="5">
-        <v>6.5919999999999996</v>
+      <c r="M110" s="6">
+        <v>6592</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5315,14 +5329,14 @@
       <c r="F111" s="4">
         <v>5</v>
       </c>
-      <c r="G111" s="4">
-        <v>1.087</v>
-      </c>
-      <c r="H111" s="4">
-        <v>3.5470000000000002</v>
-      </c>
-      <c r="I111" s="4">
-        <v>1.42</v>
+      <c r="G111" s="5">
+        <v>1087</v>
+      </c>
+      <c r="H111" s="5">
+        <v>3547</v>
+      </c>
+      <c r="I111" s="5">
+        <v>1420</v>
       </c>
       <c r="J111" s="4">
         <v>10</v>
@@ -5333,8 +5347,8 @@
       <c r="L111" s="4">
         <v>14</v>
       </c>
-      <c r="M111" s="5">
-        <v>6.2069999999999999</v>
+      <c r="M111" s="6">
+        <v>6207</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5359,11 +5373,11 @@
       <c r="G112" s="4">
         <v>978</v>
       </c>
-      <c r="H112" s="4">
-        <v>1.8620000000000001</v>
-      </c>
-      <c r="I112" s="4">
-        <v>2.2210000000000001</v>
+      <c r="H112" s="5">
+        <v>1862</v>
+      </c>
+      <c r="I112" s="5">
+        <v>2221</v>
       </c>
       <c r="J112" s="4">
         <v>127</v>
@@ -5374,8 +5388,8 @@
       <c r="L112" s="4">
         <v>18</v>
       </c>
-      <c r="M112" s="5">
-        <v>5.3380000000000001</v>
+      <c r="M112" s="6">
+        <v>5338</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5398,11 +5412,11 @@
       <c r="G113" s="4">
         <v>808</v>
       </c>
-      <c r="H113" s="4">
-        <v>1.2430000000000001</v>
-      </c>
-      <c r="I113" s="4">
-        <v>2.6139999999999999</v>
+      <c r="H113" s="5">
+        <v>1243</v>
+      </c>
+      <c r="I113" s="5">
+        <v>2614</v>
       </c>
       <c r="J113" s="4">
         <v>214</v>
@@ -5413,8 +5427,8 @@
       <c r="L113" s="4">
         <v>24</v>
       </c>
-      <c r="M113" s="5">
-        <v>5.1390000000000002</v>
+      <c r="M113" s="6">
+        <v>5139</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5439,11 +5453,11 @@
       <c r="G114" s="4">
         <v>462</v>
       </c>
-      <c r="H114" s="4">
-        <v>2.1619999999999999</v>
-      </c>
-      <c r="I114" s="4">
-        <v>2.1059999999999999</v>
+      <c r="H114" s="5">
+        <v>2162</v>
+      </c>
+      <c r="I114" s="5">
+        <v>2106</v>
       </c>
       <c r="J114" s="4">
         <v>213</v>
@@ -5454,8 +5468,8 @@
       <c r="L114" s="4">
         <v>15</v>
       </c>
-      <c r="M114" s="5">
-        <v>5.6890000000000001</v>
+      <c r="M114" s="6">
+        <v>5689</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5478,11 +5492,11 @@
       <c r="G115" s="4">
         <v>359</v>
       </c>
-      <c r="H115" s="4">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="I115" s="4">
-        <v>2.2959999999999998</v>
+      <c r="H115" s="5">
+        <v>1594</v>
+      </c>
+      <c r="I115" s="5">
+        <v>2296</v>
       </c>
       <c r="J115" s="4">
         <v>286</v>
@@ -5493,8 +5507,8 @@
       <c r="L115" s="4">
         <v>45</v>
       </c>
-      <c r="M115" s="5">
-        <v>5.3650000000000002</v>
+      <c r="M115" s="6">
+        <v>5365</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5519,11 +5533,11 @@
       <c r="G116" s="4">
         <v>490</v>
       </c>
-      <c r="H116" s="4">
-        <v>2.29</v>
-      </c>
-      <c r="I116" s="4">
-        <v>1.85</v>
+      <c r="H116" s="5">
+        <v>2290</v>
+      </c>
+      <c r="I116" s="5">
+        <v>1850</v>
       </c>
       <c r="J116" s="4">
         <v>255</v>
@@ -5534,8 +5548,8 @@
       <c r="L116" s="4">
         <v>22</v>
       </c>
-      <c r="M116" s="5">
-        <v>6.0469999999999997</v>
+      <c r="M116" s="6">
+        <v>6047</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5558,11 +5572,11 @@
       <c r="G117" s="4">
         <v>474</v>
       </c>
-      <c r="H117" s="4">
-        <v>2.0630000000000002</v>
-      </c>
-      <c r="I117" s="4">
-        <v>1.849</v>
+      <c r="H117" s="5">
+        <v>2063</v>
+      </c>
+      <c r="I117" s="5">
+        <v>1849</v>
       </c>
       <c r="J117" s="4">
         <v>237</v>
@@ -5573,8 +5587,8 @@
       <c r="L117" s="4">
         <v>38</v>
       </c>
-      <c r="M117" s="5">
-        <v>5.952</v>
+      <c r="M117" s="6">
+        <v>5952</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5599,11 +5613,11 @@
       <c r="G118" s="4">
         <v>968</v>
       </c>
-      <c r="H118" s="4">
-        <v>2.903</v>
-      </c>
-      <c r="I118" s="4">
-        <v>1.47</v>
+      <c r="H118" s="5">
+        <v>2903</v>
+      </c>
+      <c r="I118" s="5">
+        <v>1470</v>
       </c>
       <c r="J118" s="4">
         <v>237</v>
@@ -5614,8 +5628,8 @@
       <c r="L118" s="4">
         <v>23</v>
       </c>
-      <c r="M118" s="5">
-        <v>6.9459999999999997</v>
+      <c r="M118" s="6">
+        <v>6946</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5638,11 +5652,11 @@
       <c r="G119" s="4">
         <v>939</v>
       </c>
-      <c r="H119" s="4">
-        <v>2.3620000000000001</v>
-      </c>
-      <c r="I119" s="4">
-        <v>1.3959999999999999</v>
+      <c r="H119" s="5">
+        <v>2362</v>
+      </c>
+      <c r="I119" s="5">
+        <v>1396</v>
       </c>
       <c r="J119" s="4">
         <v>193</v>
@@ -5653,8 +5667,8 @@
       <c r="L119" s="4">
         <v>41</v>
       </c>
-      <c r="M119" s="5">
-        <v>6.7409999999999997</v>
+      <c r="M119" s="6">
+        <v>6741</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5679,11 +5693,11 @@
       <c r="G120" s="4">
         <v>893</v>
       </c>
-      <c r="H120" s="4">
-        <v>2.4020000000000001</v>
-      </c>
-      <c r="I120" s="4">
-        <v>1.123</v>
+      <c r="H120" s="5">
+        <v>2402</v>
+      </c>
+      <c r="I120" s="5">
+        <v>1123</v>
       </c>
       <c r="J120" s="4">
         <v>135</v>
@@ -5694,8 +5708,8 @@
       <c r="L120" s="4">
         <v>19</v>
       </c>
-      <c r="M120" s="5">
-        <v>6.1790000000000003</v>
+      <c r="M120" s="6">
+        <v>6179</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5709,8 +5723,8 @@
       <c r="D121" s="4">
         <v>60</v>
       </c>
-      <c r="E121" s="4">
-        <v>1.2809999999999999</v>
+      <c r="E121" s="5">
+        <v>1281</v>
       </c>
       <c r="F121" s="4">
         <v>911</v>
@@ -5718,8 +5732,8 @@
       <c r="G121" s="4">
         <v>959</v>
       </c>
-      <c r="H121" s="4">
-        <v>1.919</v>
+      <c r="H121" s="5">
+        <v>1919</v>
       </c>
       <c r="I121" s="4">
         <v>907</v>
@@ -5733,8 +5747,8 @@
       <c r="L121" s="4">
         <v>33</v>
       </c>
-      <c r="M121" s="5">
-        <v>6.1849999999999996</v>
+      <c r="M121" s="6">
+        <v>6185</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5756,11 +5770,11 @@
       <c r="F122" s="4">
         <v>967</v>
       </c>
-      <c r="G122" s="4">
-        <v>1.054</v>
-      </c>
-      <c r="H122" s="4">
-        <v>1.974</v>
+      <c r="G122" s="5">
+        <v>1054</v>
+      </c>
+      <c r="H122" s="5">
+        <v>1974</v>
       </c>
       <c r="I122" s="4">
         <v>813</v>
@@ -5774,8 +5788,8 @@
       <c r="L122" s="4">
         <v>23</v>
       </c>
-      <c r="M122" s="5">
-        <v>5.6959999999999997</v>
+      <c r="M122" s="6">
+        <v>5696</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5789,8 +5803,8 @@
       <c r="D123" s="4">
         <v>68</v>
       </c>
-      <c r="E123" s="4">
-        <v>1.6160000000000001</v>
+      <c r="E123" s="5">
+        <v>1616</v>
       </c>
       <c r="F123" s="4">
         <v>831</v>
@@ -5798,8 +5812,8 @@
       <c r="G123" s="4">
         <v>969</v>
       </c>
-      <c r="H123" s="4">
-        <v>1.4019999999999999</v>
+      <c r="H123" s="5">
+        <v>1402</v>
       </c>
       <c r="I123" s="4">
         <v>486</v>
@@ -5813,8 +5827,8 @@
       <c r="L123" s="4">
         <v>26</v>
       </c>
-      <c r="M123" s="5">
-        <v>5.4939999999999998</v>
+      <c r="M123" s="6">
+        <v>5494</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5839,8 +5853,8 @@
       <c r="G124" s="4">
         <v>862</v>
       </c>
-      <c r="H124" s="4">
-        <v>1.528</v>
+      <c r="H124" s="5">
+        <v>1528</v>
       </c>
       <c r="I124" s="4">
         <v>589</v>
@@ -5854,8 +5868,8 @@
       <c r="L124" s="4">
         <v>30</v>
       </c>
-      <c r="M124" s="5">
-        <v>4.8780000000000001</v>
+      <c r="M124" s="6">
+        <v>4878</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5869,8 +5883,8 @@
       <c r="D125" s="4">
         <v>100</v>
       </c>
-      <c r="E125" s="4">
-        <v>2.2149999999999999</v>
+      <c r="E125" s="5">
+        <v>2215</v>
       </c>
       <c r="F125" s="4">
         <v>515</v>
@@ -5878,8 +5892,8 @@
       <c r="G125" s="4">
         <v>658</v>
       </c>
-      <c r="H125" s="4">
-        <v>1.089</v>
+      <c r="H125" s="5">
+        <v>1089</v>
       </c>
       <c r="I125" s="4">
         <v>318</v>
@@ -5893,8 +5907,8 @@
       <c r="L125" s="4">
         <v>25</v>
       </c>
-      <c r="M125" s="5">
-        <v>5.016</v>
+      <c r="M125" s="6">
+        <v>5016</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5910,8 +5924,8 @@
       <c r="D126" s="4">
         <v>46</v>
       </c>
-      <c r="E126" s="4">
-        <v>1.611</v>
+      <c r="E126" s="5">
+        <v>1611</v>
       </c>
       <c r="F126" s="4">
         <v>471</v>
@@ -5919,8 +5933,8 @@
       <c r="G126" s="4">
         <v>619</v>
       </c>
-      <c r="H126" s="4">
-        <v>1.2689999999999999</v>
+      <c r="H126" s="5">
+        <v>1269</v>
       </c>
       <c r="I126" s="4">
         <v>437</v>
@@ -5934,8 +5948,8 @@
       <c r="L126" s="4">
         <v>32</v>
       </c>
-      <c r="M126" s="5">
-        <v>4.5490000000000004</v>
+      <c r="M126" s="6">
+        <v>4549</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5949,8 +5963,8 @@
       <c r="D127" s="4">
         <v>114</v>
       </c>
-      <c r="E127" s="4">
-        <v>2.706</v>
+      <c r="E127" s="5">
+        <v>2706</v>
       </c>
       <c r="F127" s="4">
         <v>323</v>
@@ -5973,8 +5987,8 @@
       <c r="L127" s="4">
         <v>32</v>
       </c>
-      <c r="M127" s="5">
-        <v>4.8860000000000001</v>
+      <c r="M127" s="6">
+        <v>4886</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -5990,8 +6004,8 @@
       <c r="D128" s="4">
         <v>50</v>
       </c>
-      <c r="E128" s="4">
-        <v>1.8169999999999999</v>
+      <c r="E128" s="5">
+        <v>1817</v>
       </c>
       <c r="F128" s="4">
         <v>196</v>
@@ -6014,8 +6028,8 @@
       <c r="L128" s="4">
         <v>35</v>
       </c>
-      <c r="M128" s="5">
-        <v>3.706</v>
+      <c r="M128" s="6">
+        <v>3706</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6029,8 +6043,8 @@
       <c r="D129" s="4">
         <v>151</v>
       </c>
-      <c r="E129" s="4">
-        <v>2.5539999999999998</v>
+      <c r="E129" s="5">
+        <v>2554</v>
       </c>
       <c r="F129" s="4">
         <v>145</v>
@@ -6053,8 +6067,8 @@
       <c r="L129" s="4">
         <v>29</v>
       </c>
-      <c r="M129" s="5">
-        <v>3.9670000000000001</v>
+      <c r="M129" s="6">
+        <v>3967</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6070,8 +6084,8 @@
       <c r="D130" s="4">
         <v>62</v>
       </c>
-      <c r="E130" s="4">
-        <v>1.4379999999999999</v>
+      <c r="E130" s="5">
+        <v>1438</v>
       </c>
       <c r="F130" s="4">
         <v>67</v>
@@ -6094,8 +6108,8 @@
       <c r="L130" s="4">
         <v>18</v>
       </c>
-      <c r="M130" s="5">
-        <v>2.3929999999999998</v>
+      <c r="M130" s="6">
+        <v>2393</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -6109,8 +6123,8 @@
       <c r="D131" s="4">
         <v>176</v>
       </c>
-      <c r="E131" s="4">
-        <v>1.94</v>
+      <c r="E131" s="5">
+        <v>1940</v>
       </c>
       <c r="F131" s="4">
         <v>31</v>
@@ -6133,8 +6147,8 @@
       <c r="L131" s="4">
         <v>32</v>
       </c>
-      <c r="M131" s="5">
-        <v>2.8610000000000002</v>
+      <c r="M131" s="6">
+        <v>2861</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6150,8 +6164,8 @@
       <c r="D132" s="4">
         <v>148</v>
       </c>
-      <c r="E132" s="4">
-        <v>1.609</v>
+      <c r="E132" s="5">
+        <v>1609</v>
       </c>
       <c r="F132" s="4">
         <v>24</v>
@@ -6174,8 +6188,8 @@
       <c r="L132" s="4">
         <v>41</v>
       </c>
-      <c r="M132" s="5">
-        <v>2.5840000000000001</v>
+      <c r="M132" s="6">
+        <v>2584</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6189,8 +6203,8 @@
       <c r="D133" s="4">
         <v>510</v>
       </c>
-      <c r="E133" s="4">
-        <v>2.339</v>
+      <c r="E133" s="5">
+        <v>2339</v>
       </c>
       <c r="F133" s="4">
         <v>10</v>
@@ -6213,54 +6227,54 @@
       <c r="L133" s="4">
         <v>40</v>
       </c>
-      <c r="M133" s="5">
-        <v>3.8140000000000001</v>
+      <c r="M133" s="6">
+        <v>3814</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
-        <v>1.304</v>
-      </c>
-      <c r="D134" s="5">
-        <v>1.9890000000000001</v>
-      </c>
-      <c r="E134" s="5">
-        <v>25.986000000000001</v>
-      </c>
-      <c r="F134" s="5">
-        <v>10.71</v>
-      </c>
-      <c r="G134" s="5">
-        <v>15.925000000000001</v>
-      </c>
-      <c r="H134" s="5">
-        <v>38.405999999999999</v>
-      </c>
-      <c r="I134" s="5">
-        <v>24.667999999999999</v>
-      </c>
-      <c r="J134" s="5">
-        <v>2.3260000000000001</v>
-      </c>
-      <c r="K134" s="5">
+      <c r="B134" s="7"/>
+      <c r="C134" s="6">
+        <v>1304</v>
+      </c>
+      <c r="D134" s="6">
+        <v>1989</v>
+      </c>
+      <c r="E134" s="6">
+        <v>25986</v>
+      </c>
+      <c r="F134" s="6">
+        <v>10710</v>
+      </c>
+      <c r="G134" s="6">
+        <v>15925</v>
+      </c>
+      <c r="H134" s="6">
+        <v>38406</v>
+      </c>
+      <c r="I134" s="6">
+        <v>24668</v>
+      </c>
+      <c r="J134" s="6">
+        <v>2326</v>
+      </c>
+      <c r="K134" s="8">
         <v>223</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="8">
         <v>687</v>
       </c>
-      <c r="M134" s="5">
-        <v>122.224</v>
+      <c r="M134" s="6">
+        <v>122224</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6332,7 +6346,7 @@
       <c r="L136" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M136" s="5">
+      <c r="M136" s="8">
         <v>109</v>
       </c>
     </row>
@@ -6371,7 +6385,7 @@
       <c r="L137" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M137" s="5">
+      <c r="M137" s="8">
         <v>90</v>
       </c>
     </row>
@@ -6412,7 +6426,7 @@
       <c r="L138" s="4">
         <v>1</v>
       </c>
-      <c r="M138" s="5">
+      <c r="M138" s="8">
         <v>102</v>
       </c>
     </row>
@@ -6451,7 +6465,7 @@
       <c r="L139" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M139" s="5">
+      <c r="M139" s="8">
         <v>62</v>
       </c>
     </row>
@@ -6492,7 +6506,7 @@
       <c r="L140" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M140" s="5">
+      <c r="M140" s="8">
         <v>95</v>
       </c>
     </row>
@@ -6531,7 +6545,7 @@
       <c r="L141" s="4">
         <v>1</v>
       </c>
-      <c r="M141" s="5">
+      <c r="M141" s="8">
         <v>57</v>
       </c>
     </row>
@@ -6572,7 +6586,7 @@
       <c r="L142" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M142" s="5">
+      <c r="M142" s="8">
         <v>77</v>
       </c>
     </row>
@@ -6611,7 +6625,7 @@
       <c r="L143" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M143" s="5">
+      <c r="M143" s="8">
         <v>74</v>
       </c>
     </row>
@@ -6652,7 +6666,7 @@
       <c r="L144" s="4">
         <v>1</v>
       </c>
-      <c r="M144" s="5">
+      <c r="M144" s="8">
         <v>106</v>
       </c>
     </row>
@@ -6691,7 +6705,7 @@
       <c r="L145" s="4">
         <v>1</v>
       </c>
-      <c r="M145" s="5">
+      <c r="M145" s="8">
         <v>71</v>
       </c>
     </row>
@@ -6732,7 +6746,7 @@
       <c r="L146" s="4">
         <v>1</v>
       </c>
-      <c r="M146" s="5">
+      <c r="M146" s="8">
         <v>97</v>
       </c>
     </row>
@@ -6771,7 +6785,7 @@
       <c r="L147" s="4">
         <v>1</v>
       </c>
-      <c r="M147" s="5">
+      <c r="M147" s="8">
         <v>85</v>
       </c>
     </row>
@@ -6812,7 +6826,7 @@
       <c r="L148" s="4">
         <v>2</v>
       </c>
-      <c r="M148" s="5">
+      <c r="M148" s="8">
         <v>139</v>
       </c>
     </row>
@@ -6851,7 +6865,7 @@
       <c r="L149" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M149" s="5">
+      <c r="M149" s="8">
         <v>128</v>
       </c>
     </row>
@@ -6892,7 +6906,7 @@
       <c r="L150" s="4">
         <v>2</v>
       </c>
-      <c r="M150" s="5">
+      <c r="M150" s="8">
         <v>157</v>
       </c>
     </row>
@@ -6931,7 +6945,7 @@
       <c r="L151" s="4">
         <v>2</v>
       </c>
-      <c r="M151" s="5">
+      <c r="M151" s="8">
         <v>148</v>
       </c>
     </row>
@@ -6972,7 +6986,7 @@
       <c r="L152" s="4">
         <v>3</v>
       </c>
-      <c r="M152" s="5">
+      <c r="M152" s="8">
         <v>197</v>
       </c>
     </row>
@@ -7011,7 +7025,7 @@
       <c r="L153" s="4">
         <v>1</v>
       </c>
-      <c r="M153" s="5">
+      <c r="M153" s="8">
         <v>178</v>
       </c>
     </row>
@@ -7052,7 +7066,7 @@
       <c r="L154" s="4">
         <v>4</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="8">
         <v>168</v>
       </c>
     </row>
@@ -7091,7 +7105,7 @@
       <c r="L155" s="4">
         <v>1</v>
       </c>
-      <c r="M155" s="5">
+      <c r="M155" s="8">
         <v>191</v>
       </c>
     </row>
@@ -7132,7 +7146,7 @@
       <c r="L156" s="4">
         <v>4</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="8">
         <v>143</v>
       </c>
     </row>
@@ -7171,7 +7185,7 @@
       <c r="L157" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="8">
         <v>135</v>
       </c>
     </row>
@@ -7212,7 +7226,7 @@
       <c r="L158" s="4">
         <v>1</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="8">
         <v>173</v>
       </c>
     </row>
@@ -7251,7 +7265,7 @@
       <c r="L159" s="4">
         <v>3</v>
       </c>
-      <c r="M159" s="5">
+      <c r="M159" s="8">
         <v>267</v>
       </c>
     </row>
@@ -7259,46 +7273,46 @@
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
+      <c r="B160" s="7"/>
+      <c r="C160" s="8">
         <v>100</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="8">
         <v>132</v>
       </c>
-      <c r="E160" s="5">
-        <v>1.1739999999999999</v>
-      </c>
-      <c r="F160" s="5">
+      <c r="E160" s="6">
+        <v>1174</v>
+      </c>
+      <c r="F160" s="8">
         <v>290</v>
       </c>
-      <c r="G160" s="5">
+      <c r="G160" s="8">
         <v>367</v>
       </c>
-      <c r="H160" s="5">
+      <c r="H160" s="8">
         <v>610</v>
       </c>
-      <c r="I160" s="5">
+      <c r="I160" s="8">
         <v>327</v>
       </c>
-      <c r="J160" s="5">
+      <c r="J160" s="8">
         <v>19</v>
       </c>
-      <c r="K160" s="5">
-        <v>1</v>
-      </c>
-      <c r="L160" s="5">
+      <c r="K160" s="8">
+        <v>1</v>
+      </c>
+      <c r="L160" s="8">
         <v>29</v>
       </c>
-      <c r="M160" s="5">
-        <v>3.0489999999999999</v>
+      <c r="M160" s="6">
+        <v>3049</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7370,7 +7384,7 @@
       <c r="L162" s="4">
         <v>2</v>
       </c>
-      <c r="M162" s="5">
+      <c r="M162" s="8">
         <v>670</v>
       </c>
     </row>
@@ -7409,7 +7423,7 @@
       <c r="L163" s="4">
         <v>2</v>
       </c>
-      <c r="M163" s="5">
+      <c r="M163" s="8">
         <v>568</v>
       </c>
     </row>
@@ -7450,7 +7464,7 @@
       <c r="L164" s="4">
         <v>7</v>
       </c>
-      <c r="M164" s="5">
+      <c r="M164" s="8">
         <v>634</v>
       </c>
     </row>
@@ -7489,7 +7503,7 @@
       <c r="L165" s="4">
         <v>3</v>
       </c>
-      <c r="M165" s="5">
+      <c r="M165" s="8">
         <v>489</v>
       </c>
     </row>
@@ -7530,7 +7544,7 @@
       <c r="L166" s="4">
         <v>1</v>
       </c>
-      <c r="M166" s="5">
+      <c r="M166" s="8">
         <v>553</v>
       </c>
     </row>
@@ -7569,7 +7583,7 @@
       <c r="L167" s="4">
         <v>2</v>
       </c>
-      <c r="M167" s="5">
+      <c r="M167" s="8">
         <v>414</v>
       </c>
     </row>
@@ -7610,7 +7624,7 @@
       <c r="L168" s="4">
         <v>3</v>
       </c>
-      <c r="M168" s="5">
+      <c r="M168" s="8">
         <v>510</v>
       </c>
     </row>
@@ -7649,7 +7663,7 @@
       <c r="L169" s="4">
         <v>1</v>
       </c>
-      <c r="M169" s="5">
+      <c r="M169" s="8">
         <v>419</v>
       </c>
     </row>
@@ -7690,7 +7704,7 @@
       <c r="L170" s="4">
         <v>4</v>
       </c>
-      <c r="M170" s="5">
+      <c r="M170" s="8">
         <v>605</v>
       </c>
     </row>
@@ -7729,7 +7743,7 @@
       <c r="L171" s="4">
         <v>3</v>
       </c>
-      <c r="M171" s="5">
+      <c r="M171" s="8">
         <v>530</v>
       </c>
     </row>
@@ -7770,7 +7784,7 @@
       <c r="L172" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M172" s="5">
+      <c r="M172" s="8">
         <v>577</v>
       </c>
     </row>
@@ -7809,7 +7823,7 @@
       <c r="L173" s="4">
         <v>1</v>
       </c>
-      <c r="M173" s="5">
+      <c r="M173" s="8">
         <v>547</v>
       </c>
     </row>
@@ -7850,7 +7864,7 @@
       <c r="L174" s="4">
         <v>6</v>
       </c>
-      <c r="M174" s="5">
+      <c r="M174" s="8">
         <v>656</v>
       </c>
     </row>
@@ -7889,7 +7903,7 @@
       <c r="L175" s="4">
         <v>5</v>
       </c>
-      <c r="M175" s="5">
+      <c r="M175" s="8">
         <v>587</v>
       </c>
     </row>
@@ -7930,7 +7944,7 @@
       <c r="L176" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M176" s="5">
+      <c r="M176" s="8">
         <v>665</v>
       </c>
     </row>
@@ -7969,7 +7983,7 @@
       <c r="L177" s="4">
         <v>5</v>
       </c>
-      <c r="M177" s="5">
+      <c r="M177" s="8">
         <v>687</v>
       </c>
     </row>
@@ -8010,7 +8024,7 @@
       <c r="L178" s="4">
         <v>3</v>
       </c>
-      <c r="M178" s="5">
+      <c r="M178" s="8">
         <v>682</v>
       </c>
     </row>
@@ -8049,7 +8063,7 @@
       <c r="L179" s="4">
         <v>3</v>
       </c>
-      <c r="M179" s="5">
+      <c r="M179" s="8">
         <v>684</v>
       </c>
     </row>
@@ -8090,7 +8104,7 @@
       <c r="L180" s="4">
         <v>1</v>
       </c>
-      <c r="M180" s="5">
+      <c r="M180" s="8">
         <v>647</v>
       </c>
     </row>
@@ -8129,7 +8143,7 @@
       <c r="L181" s="4">
         <v>3</v>
       </c>
-      <c r="M181" s="5">
+      <c r="M181" s="8">
         <v>678</v>
       </c>
     </row>
@@ -8170,7 +8184,7 @@
       <c r="L182" s="4">
         <v>3</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="8">
         <v>428</v>
       </c>
     </row>
@@ -8209,7 +8223,7 @@
       <c r="L183" s="4">
         <v>8</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="8">
         <v>559</v>
       </c>
     </row>
@@ -8250,7 +8264,7 @@
       <c r="L184" s="4">
         <v>9</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="8">
         <v>675</v>
       </c>
     </row>
@@ -8289,54 +8303,54 @@
       <c r="L185" s="4">
         <v>7</v>
       </c>
-      <c r="M185" s="5">
-        <v>1.0109999999999999</v>
+      <c r="M185" s="6">
+        <v>1011</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
+      <c r="B186" s="7"/>
+      <c r="C186" s="8">
         <v>288</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="8">
         <v>280</v>
       </c>
-      <c r="E186" s="5">
-        <v>4.6639999999999997</v>
-      </c>
-      <c r="F186" s="5">
-        <v>1.2490000000000001</v>
-      </c>
-      <c r="G186" s="5">
-        <v>1.7689999999999999</v>
-      </c>
-      <c r="H186" s="5">
-        <v>3.95</v>
-      </c>
-      <c r="I186" s="5">
-        <v>2.0489999999999999</v>
-      </c>
-      <c r="J186" s="5">
+      <c r="E186" s="6">
+        <v>4664</v>
+      </c>
+      <c r="F186" s="6">
+        <v>1249</v>
+      </c>
+      <c r="G186" s="6">
+        <v>1769</v>
+      </c>
+      <c r="H186" s="6">
+        <v>3950</v>
+      </c>
+      <c r="I186" s="6">
+        <v>2049</v>
+      </c>
+      <c r="J186" s="8">
         <v>137</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="8">
         <v>7</v>
       </c>
-      <c r="L186" s="5">
+      <c r="L186" s="8">
         <v>82</v>
       </c>
-      <c r="M186" s="5">
-        <v>14.475</v>
+      <c r="M186" s="6">
+        <v>14475</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8408,8 +8422,8 @@
       <c r="L188" s="4">
         <v>9</v>
       </c>
-      <c r="M188" s="5">
-        <v>1.153</v>
+      <c r="M188" s="6">
+        <v>1153</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8447,8 +8461,8 @@
       <c r="L189" s="4">
         <v>3</v>
       </c>
-      <c r="M189" s="5">
-        <v>1.0640000000000001</v>
+      <c r="M189" s="6">
+        <v>1064</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8488,8 +8502,8 @@
       <c r="L190" s="4">
         <v>1</v>
       </c>
-      <c r="M190" s="5">
-        <v>1.0580000000000001</v>
+      <c r="M190" s="6">
+        <v>1058</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8527,7 +8541,7 @@
       <c r="L191" s="4">
         <v>2</v>
       </c>
-      <c r="M191" s="5">
+      <c r="M191" s="8">
         <v>871</v>
       </c>
     </row>
@@ -8568,7 +8582,7 @@
       <c r="L192" s="4">
         <v>7</v>
       </c>
-      <c r="M192" s="5">
+      <c r="M192" s="8">
         <v>939</v>
       </c>
     </row>
@@ -8607,7 +8621,7 @@
       <c r="L193" s="4">
         <v>7</v>
       </c>
-      <c r="M193" s="5">
+      <c r="M193" s="8">
         <v>766</v>
       </c>
     </row>
@@ -8648,7 +8662,7 @@
       <c r="L194" s="4">
         <v>5</v>
       </c>
-      <c r="M194" s="5">
+      <c r="M194" s="8">
         <v>989</v>
       </c>
     </row>
@@ -8687,7 +8701,7 @@
       <c r="L195" s="4">
         <v>7</v>
       </c>
-      <c r="M195" s="5">
+      <c r="M195" s="8">
         <v>758</v>
       </c>
     </row>
@@ -8728,8 +8742,8 @@
       <c r="L196" s="4">
         <v>3</v>
       </c>
-      <c r="M196" s="5">
-        <v>1.0289999999999999</v>
+      <c r="M196" s="6">
+        <v>1029</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8767,7 +8781,7 @@
       <c r="L197" s="4">
         <v>7</v>
       </c>
-      <c r="M197" s="5">
+      <c r="M197" s="8">
         <v>879</v>
       </c>
     </row>
@@ -8808,8 +8822,8 @@
       <c r="L198" s="4">
         <v>4</v>
       </c>
-      <c r="M198" s="5">
-        <v>1.012</v>
+      <c r="M198" s="6">
+        <v>1012</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8847,7 +8861,7 @@
       <c r="L199" s="4">
         <v>8</v>
       </c>
-      <c r="M199" s="5">
+      <c r="M199" s="8">
         <v>907</v>
       </c>
     </row>
@@ -8888,8 +8902,8 @@
       <c r="L200" s="4">
         <v>9</v>
       </c>
-      <c r="M200" s="5">
-        <v>1.0469999999999999</v>
+      <c r="M200" s="6">
+        <v>1047</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8927,7 +8941,7 @@
       <c r="L201" s="4">
         <v>6</v>
       </c>
-      <c r="M201" s="5">
+      <c r="M201" s="8">
         <v>982</v>
       </c>
     </row>
@@ -8968,8 +8982,8 @@
       <c r="L202" s="4">
         <v>11</v>
       </c>
-      <c r="M202" s="5">
-        <v>1.083</v>
+      <c r="M202" s="6">
+        <v>1083</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -9007,8 +9021,8 @@
       <c r="L203" s="4">
         <v>4</v>
       </c>
-      <c r="M203" s="5">
-        <v>1.105</v>
+      <c r="M203" s="6">
+        <v>1105</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -9048,8 +9062,8 @@
       <c r="L204" s="4">
         <v>8</v>
       </c>
-      <c r="M204" s="5">
-        <v>1.202</v>
+      <c r="M204" s="6">
+        <v>1202</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -9087,8 +9101,8 @@
       <c r="L205" s="4">
         <v>5</v>
       </c>
-      <c r="M205" s="5">
-        <v>1.157</v>
+      <c r="M205" s="6">
+        <v>1157</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -9128,8 +9142,8 @@
       <c r="L206" s="4">
         <v>3</v>
       </c>
-      <c r="M206" s="5">
-        <v>1.077</v>
+      <c r="M206" s="6">
+        <v>1077</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -9167,8 +9181,8 @@
       <c r="L207" s="4">
         <v>4</v>
       </c>
-      <c r="M207" s="5">
-        <v>1.1359999999999999</v>
+      <c r="M207" s="6">
+        <v>1136</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -9208,7 +9222,7 @@
       <c r="L208" s="4">
         <v>4</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="8">
         <v>734</v>
       </c>
     </row>
@@ -9247,7 +9261,7 @@
       <c r="L209" s="4">
         <v>6</v>
       </c>
-      <c r="M209" s="5">
+      <c r="M209" s="8">
         <v>783</v>
       </c>
     </row>
@@ -9288,7 +9302,7 @@
       <c r="L210" s="4">
         <v>6</v>
       </c>
-      <c r="M210" s="5">
+      <c r="M210" s="8">
         <v>914</v>
       </c>
     </row>
@@ -9327,47 +9341,57 @@
       <c r="L211" s="4">
         <v>7</v>
       </c>
-      <c r="M211" s="5">
-        <v>1.2849999999999999</v>
+      <c r="M211" s="6">
+        <v>1285</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
+      <c r="B212" s="7"/>
+      <c r="C212" s="8">
         <v>436</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212" s="8">
         <v>577</v>
       </c>
-      <c r="E212" s="5">
-        <v>7.8769999999999998</v>
-      </c>
-      <c r="F212" s="5">
-        <v>2.7250000000000001</v>
-      </c>
-      <c r="G212" s="5">
-        <v>2.8439999999999999</v>
-      </c>
-      <c r="H212" s="5">
-        <v>6.085</v>
-      </c>
-      <c r="I212" s="5">
-        <v>3.0089999999999999</v>
-      </c>
-      <c r="J212" s="5">
+      <c r="E212" s="6">
+        <v>7877</v>
+      </c>
+      <c r="F212" s="6">
+        <v>2725</v>
+      </c>
+      <c r="G212" s="6">
+        <v>2844</v>
+      </c>
+      <c r="H212" s="6">
+        <v>6085</v>
+      </c>
+      <c r="I212" s="6">
+        <v>3009</v>
+      </c>
+      <c r="J212" s="8">
         <v>218</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="8">
         <v>23</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="8">
         <v>136</v>
       </c>
-      <c r="M212" s="5">
-        <v>23.93</v>
+      <c r="M212" s="6">
+        <v>23930</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A213" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A214" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
